--- a/assets/files/Meesho.xlsx
+++ b/assets/files/Meesho.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC6A38-B005-40CA-9B85-02277C0C9633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>S NO</t>
-  </si>
-  <si>
     <t>PRODUCT NAME</t>
   </si>
   <si>
@@ -64,12 +67,15 @@
   </si>
   <si>
     <t>PERCENTAGE</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,6 +126,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -167,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +209,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,6 +261,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,55 +453,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>925</v>
@@ -479,12 +522,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1129</v>
@@ -505,12 +548,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>855</v>
@@ -531,12 +574,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>753</v>
@@ -557,12 +600,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>395</v>
@@ -583,12 +626,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>395</v>
@@ -609,12 +652,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>446</v>
@@ -636,12 +679,12 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>497</v>
@@ -669,24 +712,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/files/Meesho.xlsx
+++ b/assets/files/Meesho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC6A38-B005-40CA-9B85-02277C0C9633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65BFA3F-0E01-4379-87BA-B16CF0BB0642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>PERCENTAGE</t>
   </si>
   <si>
-    <t>Id</t>
+    <t>S No</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/files/Meesho.xlsx
+++ b/assets/files/Meesho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Real-Estate\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65BFA3F-0E01-4379-87BA-B16CF0BB0642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DE5886-993E-42AD-8484-3415EA701409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>PRODUCT NAME</t>
-  </si>
-  <si>
-    <t>CURRENT PRICE</t>
-  </si>
-  <si>
     <t>TRANSFER PRICE</t>
   </si>
   <si>
@@ -69,7 +63,13 @@
     <t>PERCENTAGE</t>
   </si>
   <si>
-    <t>S No</t>
+    <t>SNo</t>
+  </si>
+  <si>
+    <t>PRODUCTNAME</t>
+  </si>
+  <si>
+    <t>CURRENTPRICE</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,28 +472,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>925</v>
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1129</v>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>855</v>
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>753</v>
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>395</v>
@@ -631,7 +631,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>395</v>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>446</v>
@@ -684,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>497</v>
